--- a/data/trans_camb/P0902-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P0902-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>12.12274174116329</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>8.668661665955993</v>
+        <v>8.668661665955991</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>7.453520766324802</v>
@@ -664,7 +664,7 @@
         <v>7.922335821671196</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>7.646589767249325</v>
+        <v>7.646589767249328</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.056352861101642</v>
+        <v>1.169476590870667</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7883855985154016</v>
+        <v>0.383197348028407</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.204750837449601</v>
+        <v>3.352569486558554</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.921657699298174</v>
+        <v>6.736264941561442</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>8.143315060475215</v>
+        <v>8.007871947124674</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.695255965840336</v>
+        <v>5.289731430593938</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.827889885623007</v>
+        <v>5.256237136708048</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.696893716852323</v>
+        <v>5.20714274921996</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.282170437061373</v>
+        <v>5.306047377901948</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.527697754801801</v>
+        <v>7.851162450823685</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.003511209371484</v>
+        <v>7.054065142452322</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.8489768783068</v>
+        <v>10.00278419042217</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.6955375814876</v>
+        <v>14.36330752020392</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.17479777406925</v>
+        <v>16.36939961303647</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.65740183710263</v>
+        <v>11.6197718361026</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.948652928142664</v>
+        <v>10.09024528608092</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.74598438616216</v>
+        <v>10.42375034696985</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.17848712055173</v>
+        <v>9.893277227683907</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>1.161846065920009</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8308063199254541</v>
+        <v>0.8308063199254538</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.8260423079473254</v>
@@ -769,7 +769,7 @@
         <v>0.8779991056084313</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.8474393320003509</v>
+        <v>0.8474393320003513</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.09427389245360945</v>
+        <v>0.1220334071399493</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.07534770194396503</v>
+        <v>0.02330208534839371</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3553020208133607</v>
+        <v>0.3510102054809092</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.5554039631927069</v>
+        <v>0.5337199685424375</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6740693176553557</v>
+        <v>0.6501320805182068</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4550562311526672</v>
+        <v>0.4379987442078969</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.466709901738953</v>
+        <v>0.5249349029068667</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5707400793567186</v>
+        <v>0.5179264042471061</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5255630270658834</v>
+        <v>0.5225873650838141</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.198650956252166</v>
+        <v>1.258489372096857</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.111476449088616</v>
+        <v>1.106119945410937</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.574823174284788</v>
+        <v>1.566790035797002</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.678622509803573</v>
+        <v>1.65819815963927</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.859785806003134</v>
+        <v>1.876018123053195</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.320508845120544</v>
+        <v>1.378992037763999</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.207942219882811</v>
+        <v>1.337963723892289</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.317149296364573</v>
+        <v>1.329132811563015</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.24352308716777</v>
+        <v>1.236424117693038</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>3.056728113843094</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>6.022029657169458</v>
+        <v>6.022029657169456</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>6.192099022690972</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.017874889456048</v>
+        <v>1.003937665438592</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.75523195531267</v>
+        <v>-1.804289859082884</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3485453182579036</v>
+        <v>0.5760627457725475</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.104463222305014</v>
+        <v>4.984226981235786</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.2849484594792564</v>
+        <v>-0.1735363659151944</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.948800787268597</v>
+        <v>3.012900190024317</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.079852381577026</v>
+        <v>3.973746015526351</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.3745469063759232</v>
+        <v>-0.07184945093780812</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.455242695718289</v>
+        <v>2.520850022744166</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.390672348863006</v>
+        <v>6.310259223206851</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.374242696598038</v>
+        <v>3.178802251476561</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.551227758179887</v>
+        <v>5.825191027040192</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.12461001475704</v>
+        <v>11.74205953813636</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.344644013632228</v>
+        <v>6.532807090730613</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.136502254168812</v>
+        <v>8.980177360029785</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.422511937181747</v>
+        <v>8.490061158438857</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.997827495344793</v>
+        <v>4.174411431085951</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.418782580943204</v>
+        <v>6.582346097621911</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.2259387994358333</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4451197817516106</v>
+        <v>0.4451197817516104</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.5706134617374297</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.09789885464514331</v>
+        <v>0.1039965317315698</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1807166875179451</v>
+        <v>-0.1981331029351877</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.03365996217873021</v>
+        <v>0.05705803056758747</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3291171504868295</v>
+        <v>0.327310747117442</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02411534137059979</v>
+        <v>-0.01368314516867987</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1764974292644794</v>
+        <v>0.196427287782156</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3351615441261173</v>
+        <v>0.3322448223572225</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03372812282503855</v>
+        <v>-0.01100129247382319</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2083768849210462</v>
+        <v>0.2077775889073776</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9221637665475533</v>
+        <v>0.9089307389395938</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4809235447604968</v>
+        <v>0.4562452570349212</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7983789488323032</v>
+        <v>0.8520907363279852</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.07169826440846</v>
+        <v>0.9987176197540409</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.525154366054471</v>
+        <v>0.5552087859921637</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7503999419297531</v>
+        <v>0.7659386690285725</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8756057623930283</v>
+        <v>0.8831719866612795</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4032953729090885</v>
+        <v>0.4311256393981284</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6497162726111221</v>
+        <v>0.6652503028909434</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.344633476287786</v>
+        <v>-3.110728268021189</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.626396609355356</v>
+        <v>-4.521938431349821</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.080072722794097</v>
+        <v>0.8097193738153341</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.433339832977758</v>
+        <v>-3.245441791291632</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.547858366467628</v>
+        <v>-4.51552567200123</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.352524176137831</v>
+        <v>-1.4626783831891</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.199927336447109</v>
+        <v>-2.574113133499876</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.241356066709604</v>
+        <v>-3.695699621615362</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7150696683563942</v>
+        <v>0.8534519174341615</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.136927765053851</v>
+        <v>3.067179927828037</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.437819284630705</v>
+        <v>1.371214130303944</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.24279537665449</v>
+        <v>7.779121709119348</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.637400046114575</v>
+        <v>4.661062098789002</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.668989058119838</v>
+        <v>3.687428458649342</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.138184326089195</v>
+        <v>5.888380952383088</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.844981293261744</v>
+        <v>2.684491244793784</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.520721217367916</v>
+        <v>1.36649750820489</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.787486252167581</v>
+        <v>5.634779980248805</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3174012348437376</v>
+        <v>-0.3030378269337593</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4414390020435215</v>
+        <v>-0.4429558634138483</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.09940192611000795</v>
+        <v>0.06730657455588793</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1808071324996346</v>
+        <v>-0.1736206146524907</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2407873625935536</v>
+        <v>-0.2403138543520598</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.07161800051055732</v>
+        <v>-0.0761810115676311</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1555307462323766</v>
+        <v>-0.174499098557298</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2340153179210148</v>
+        <v>-0.262223972148169</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.05155916311857594</v>
+        <v>0.06195592210297571</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4291573315564554</v>
+        <v>0.4122196280259264</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2028172943673666</v>
+        <v>0.1912474361725935</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.141011962723667</v>
+        <v>1.05930828856718</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3161042898597439</v>
+        <v>0.3163858778395504</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2528344020833581</v>
+        <v>0.2615230917936659</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4170851323412864</v>
+        <v>0.3957604301125309</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2422667123177097</v>
+        <v>0.2292951671535721</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1371159916730192</v>
+        <v>0.1269893648423216</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5118761572166119</v>
+        <v>0.4948005073484434</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>0.6786306435231648</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.884123723286812</v>
+        <v>3.884123723286814</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2892326894996037</v>
+        <v>0.4951739284168237</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.00454902429107</v>
+        <v>-0.9556527608036264</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.492573775896659</v>
+        <v>0.9875814449575334</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.345227078812318</v>
+        <v>-1.097796283296392</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.994915702902328</v>
+        <v>-3.698378503560537</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6803264062347087</v>
+        <v>0.4897371889440771</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1000503950180799</v>
+        <v>0.3005532859157877</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.597700374145711</v>
+        <v>-1.51830910118659</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.816113530719095</v>
+        <v>1.698707379429464</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.616926376256531</v>
+        <v>6.146925276134968</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.116160680888981</v>
+        <v>4.215252100980772</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.563707041528905</v>
+        <v>6.47132798481502</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.530875297597945</v>
+        <v>5.567331896215013</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.372134059546651</v>
+        <v>3.094331996323685</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.034619538816851</v>
+        <v>6.740206032917167</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.772046453430518</v>
+        <v>4.819526928019622</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.046374035671009</v>
+        <v>2.867066239990232</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.910317980863742</v>
+        <v>5.852686373854341</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.05331098392231637</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3051239423693408</v>
+        <v>0.305123942369341</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.03261147588327262</v>
+        <v>0.04827184131749019</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1101707086515144</v>
+        <v>-0.1006597295578318</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1562308167962229</v>
+        <v>0.109500462203738</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.07452418371955137</v>
+        <v>-0.05925584803936225</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2105230687373284</v>
+        <v>-0.1995472864542521</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02794493859230439</v>
+        <v>0.02478661028111365</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01120969987920665</v>
+        <v>0.02198601633103924</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1164606707686781</v>
+        <v>-0.1071608624306734</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1382767432156274</v>
+        <v>0.1192006880735321</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8052129909595066</v>
+        <v>0.8980556566355424</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5821495081123572</v>
+        <v>0.6074169592092693</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9532897026701029</v>
+        <v>0.9625587180269898</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3695745844316337</v>
+        <v>0.3617151729278444</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2187825056541401</v>
+        <v>0.2040901570428428</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4636612903097905</v>
+        <v>0.4362767363629961</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4139692891308789</v>
+        <v>0.4154717418232809</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2538519870209664</v>
+        <v>0.2462790256148722</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.518376926867174</v>
+        <v>0.4909810889047449</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>2.131788355976666</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>4.733515910860969</v>
+        <v>4.733515910860972</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.312861417624008</v>
+        <v>1.356389308387942</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.1991299112974944</v>
+        <v>-0.2918265902993695</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.987353698849347</v>
+        <v>2.902546068665935</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.581913137089576</v>
+        <v>3.433437335485207</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.322495670377043</v>
+        <v>1.353768651011506</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.441777630961504</v>
+        <v>3.40014121278125</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.877035447483396</v>
+        <v>2.860834165550661</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.9660367398967165</v>
+        <v>0.9633929627433295</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.641381088409886</v>
+        <v>3.583043367426519</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.410131578451451</v>
+        <v>4.282730172946343</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.468775337920551</v>
+        <v>2.390158734709676</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.823529862799194</v>
+        <v>5.803008890322943</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.170334223513415</v>
+        <v>6.977270391050823</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.88264124196029</v>
+        <v>4.806371108611677</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.711949800552603</v>
+        <v>6.688823837256379</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.278007638586567</v>
+        <v>5.304018898083564</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.292338010231649</v>
+        <v>3.316455352331402</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.827293104193128</v>
+        <v>5.80642552845195</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.1864212891623719</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4139379671060365</v>
+        <v>0.4139379671060368</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1518164549986115</v>
+        <v>0.153440571645071</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.0175724604878283</v>
+        <v>-0.03210130236119324</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3365398824026801</v>
+        <v>0.3248091647423482</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2298021872894745</v>
+        <v>0.2195269813755923</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08417585769512149</v>
+        <v>0.08718654865228144</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2243131599101991</v>
+        <v>0.2153671266864978</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2429293634755836</v>
+        <v>0.2408725805720554</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.07887147745810839</v>
+        <v>0.08759436273838976</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3022607009537837</v>
+        <v>0.2940622021880599</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5994865720464507</v>
+        <v>0.5581800779042283</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3352056330683315</v>
+        <v>0.3146615297470546</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7789778253870611</v>
+        <v>0.7773039792603575</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.53006127325895</v>
+        <v>0.4967804807133045</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3498768141588207</v>
+        <v>0.3511432757762561</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5008642726156917</v>
+        <v>0.4856509477691817</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4835586128483259</v>
+        <v>0.4934430401227832</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2977225038998929</v>
+        <v>0.3097485445346783</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5322972460472104</v>
+        <v>0.535311866910643</v>
       </c>
     </row>
     <row r="34">
